--- a/lab 3.4.5/Книга1.xlsx
+++ b/lab 3.4.5/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>y, делен</t>
   </si>
@@ -78,6 +78,39 @@
   </si>
   <si>
     <t>крат 2</t>
+  </si>
+  <si>
+    <t>Xs</t>
+  </si>
+  <si>
+    <t>Ys</t>
+  </si>
+  <si>
+    <t>Xc</t>
+  </si>
+  <si>
+    <t>Yc</t>
+  </si>
+  <si>
+    <t>реальные напряжения</t>
+  </si>
+  <si>
+    <t>100 mV</t>
+  </si>
+  <si>
+    <t>10 mV</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>U_x</t>
+  </si>
+  <si>
+    <t>U_y</t>
   </si>
 </sst>
 </file>
@@ -94,15 +127,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,15 +158,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -143,6 +267,1115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Пермаллой</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$M$26:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.87234042553191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.872340425531917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.48936170212766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.51063829787234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.170212765957446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.106382978723403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0425531914893611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9787234042553177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$N$26:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6969696969696972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3737373737373735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70707070707070696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60606060606060597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35353535353535348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20202020202020204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14141414141414138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Кремнистое железо</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$S$26:$S$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>163.63636363636365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145.45454545454547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.18181818181817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.818181818181827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.909090909090914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.818181818181813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$T$26:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.62000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Феррит</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$Y$26:$Y$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2749999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Z$26:$Z$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9999999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3333333333333325E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8333333333333333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="562447456"/>
+        <c:axId val="562449024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="562447456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562449024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="562449024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562447456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558412</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>215221</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>69800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:S14"/>
+  <dimension ref="F3:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="72" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,13 +1944,13 @@
       <c r="M13" s="2">
         <v>200</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="3">
         <v>13</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="3">
         <v>13.5</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>29</v>
       </c>
       <c r="S13" t="s">
@@ -747,7 +1980,817 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>160</v>
+      </c>
+      <c r="I19">
+        <v>720</v>
+      </c>
+      <c r="J19">
+        <v>108</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K21" si="0">0.5*H19/1000*15/14.1*100/0.2</f>
+        <v>42.553191489361701</v>
+      </c>
+      <c r="L19">
+        <f>0.5*I19/1000*20/11*100/0.2</f>
+        <v>327.2727272727272</v>
+      </c>
+      <c r="M19">
+        <f>0.5*J19/1000*45/25*100/0.2</f>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="20" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>180</v>
+      </c>
+      <c r="I20">
+        <v>128</v>
+      </c>
+      <c r="J20">
+        <v>76</v>
+      </c>
+      <c r="K20">
+        <f>H20*0.4/300/0.66*10</f>
+        <v>3.6363636363636358</v>
+      </c>
+      <c r="L20">
+        <f>I20*0.4/200/2*10</f>
+        <v>1.28</v>
+      </c>
+      <c r="M20">
+        <f>J20*0.4/400/3*10</f>
+        <v>0.25333333333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>132</v>
+      </c>
+      <c r="I21">
+        <v>160</v>
+      </c>
+      <c r="J21">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>35.106382978723403</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L20:L21" si="1">0.5*I21/1000*20/11*100/0.2</f>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M20:M21" si="2">0.5*J21/1000*45/25*100/0.2</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="22" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>170</v>
+      </c>
+      <c r="I22">
+        <v>56</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <f>H22*0.4/300/0.66*10</f>
+        <v>3.4343434343434343</v>
+      </c>
+      <c r="L22">
+        <f>I22*0.4/200/2*10</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M22">
+        <f>J22*0.4/400/3*10</f>
+        <v>4.3333333333333342E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="I24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="I26" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="J26" s="6">
+        <f>16.8/2</f>
+        <v>8.4</v>
+      </c>
+      <c r="K26" s="5">
+        <f>I26/5*0.02*0.5</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L26" s="11">
+        <f>J26/5*0.05</f>
+        <v>8.4000000000000019E-2</v>
+      </c>
+      <c r="M26" s="6">
+        <f>15/14.1*100/0.2*K26</f>
+        <v>22.87234042553191</v>
+      </c>
+      <c r="N26" s="6">
+        <f>0.4/300/0.66*10000*L26</f>
+        <v>1.6969696969696972</v>
+      </c>
+      <c r="O26" s="5">
+        <v>18</v>
+      </c>
+      <c r="P26" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="Q26" s="5">
+        <f>O26/5*0.1*0.5</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="R26" s="11">
+        <f>P26/5*0.02</f>
+        <v>6.2000000000000006E-2</v>
+      </c>
+      <c r="S26" s="6">
+        <f>20/11*100/0.2*Q26</f>
+        <v>163.63636363636365</v>
+      </c>
+      <c r="T26" s="6">
+        <f>0.4/200/2*10000*R26</f>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="U26" s="5">
+        <v>15</v>
+      </c>
+      <c r="V26" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="W26" s="5">
+        <f>U26/5*0.02*0.5</f>
+        <v>0.03</v>
+      </c>
+      <c r="X26" s="11">
+        <f>V26/5*0.01</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="Y26" s="6">
+        <f>45/25*100/0.2*W26</f>
+        <v>27</v>
+      </c>
+      <c r="Z26" s="15">
+        <f>0.4/400/3*10000*X26</f>
+        <v>0.12999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="I27" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="J27">
+        <v>6.8</v>
+      </c>
+      <c r="K27" s="5">
+        <f>I27/5*0.02*0.5</f>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" ref="L27:L33" si="3">J27/5*0.05</f>
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M33" si="4">15/14.1*100/0.2*K27</f>
+        <v>17.872340425531917</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N33" si="5">0.4/300/0.66*10000*L27</f>
+        <v>1.3737373737373735</v>
+      </c>
+      <c r="O27" s="5">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>14.5</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" ref="Q27:Q34" si="6">O27/5*0.1*0.5</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="R27" s="11">
+        <f t="shared" ref="R27:R34" si="7">P27/5*0.02</f>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27:S34" si="8">20/11*100/0.2*Q27</f>
+        <v>145.45454545454547</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ref="T27:T34" si="9">0.4/200/2*10000*R27</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U27" s="5">
+        <v>13</v>
+      </c>
+      <c r="V27" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" ref="W27:W34" si="10">U27/5*0.02*0.5</f>
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="X27" s="11">
+        <f t="shared" ref="X27:X34" si="11">V27/5*0.01</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" ref="Y27:Y34" si="12">45/25*100/0.2*W27</f>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" ref="Z27:Z34" si="13">0.4/400/3*10000*X27</f>
+        <v>0.12333333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="I28" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="J28">
+        <v>5.5</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" ref="K28:K33" si="14">I28/5*0.02*0.5</f>
+        <v>3.1000000000000003E-2</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="3"/>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>16.48936170212766</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="O28" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="P28">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="6"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R28" s="11">
+        <f t="shared" si="7"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="8"/>
+        <v>122.72727272727272</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="9"/>
+        <v>0.52</v>
+      </c>
+      <c r="U28" s="5">
+        <v>10</v>
+      </c>
+      <c r="V28" s="6">
+        <v>17</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="X28" s="11">
+        <f t="shared" si="11"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y28" s="6">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="13"/>
+        <v>0.11333333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="I29" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="J29">
+        <v>3.5</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="14"/>
+        <v>2.5400000000000002E-2</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="3"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>13.51063829787234</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>0.70707070707070696</v>
+      </c>
+      <c r="O29" s="5">
+        <v>13</v>
+      </c>
+      <c r="P29">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="6"/>
+        <v>0.13</v>
+      </c>
+      <c r="R29" s="11">
+        <f t="shared" si="7"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="8"/>
+        <v>118.18181818181817</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="9"/>
+        <v>0.52</v>
+      </c>
+      <c r="U29" s="5">
+        <v>9</v>
+      </c>
+      <c r="V29" s="6">
+        <v>16</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" si="10"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="X29" s="11">
+        <f t="shared" si="11"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Y29" s="6">
+        <f t="shared" si="12"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="13"/>
+        <v>0.10666666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="I30" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="14"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>11.170212765957446</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="O30" s="5">
+        <v>11</v>
+      </c>
+      <c r="P30">
+        <v>11.5</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="6"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="R30" s="11">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="U30" s="7">
+        <f>13.5/2</f>
+        <v>6.75</v>
+      </c>
+      <c r="V30" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="X30" s="11">
+        <f t="shared" si="11"/>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="Y30" s="6">
+        <f t="shared" si="12"/>
+        <v>12.150000000000002</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="13"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="I31" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="J31" s="1">
+        <f>3.5/2</f>
+        <v>1.75</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="14"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="3"/>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>10.106382978723403</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>0.35353535353535348</v>
+      </c>
+      <c r="O31" s="5">
+        <v>9</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="6"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="R31" s="11">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="8"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="U31" s="8">
+        <f>11.5/2</f>
+        <v>5.75</v>
+      </c>
+      <c r="V31" s="2">
+        <v>12</v>
+      </c>
+      <c r="W31" s="5">
+        <f t="shared" si="10"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="X31" s="11">
+        <f t="shared" si="11"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="Y31" s="6">
+        <f t="shared" si="12"/>
+        <v>10.35</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="13"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="I32" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="J32">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>9.0425531914893611</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>0.20202020202020204</v>
+      </c>
+      <c r="O32" s="7">
+        <f>12.5/2</f>
+        <v>6.25</v>
+      </c>
+      <c r="P32" s="1">
+        <f>14.5/2</f>
+        <v>7.25</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="R32" s="11">
+        <f t="shared" si="7"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="8"/>
+        <v>56.818181818181813</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U32" s="9">
+        <f>6.5</f>
+        <v>6.5</v>
+      </c>
+      <c r="V32" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="X32" s="11">
+        <f t="shared" si="11"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="Y32" s="6">
+        <f t="shared" si="12"/>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="13"/>
+        <v>6.3333333333333325E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:26" x14ac:dyDescent="0.3">
+      <c r="I33" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="J33" s="1">
+        <f>2.8/4</f>
+        <v>0.7</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="14"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>7.9787234042553177</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>0.14141414141414138</v>
+      </c>
+      <c r="O33" s="8">
+        <f>9/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="P33" s="2">
+        <f>9.8/2</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="6"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="R33" s="11">
+        <f t="shared" si="7"/>
+        <v>1.9600000000000003E-2</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="8"/>
+        <v>40.909090909090914</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>0.19600000000000004</v>
+      </c>
+      <c r="U33" s="10">
+        <f>13/4</f>
+        <v>3.25</v>
+      </c>
+      <c r="V33" s="3">
+        <f>13.5/2</f>
+        <v>6.75</v>
+      </c>
+      <c r="W33" s="5">
+        <f t="shared" si="10"/>
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="X33" s="11">
+        <f t="shared" si="11"/>
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="Y33" s="6">
+        <f t="shared" si="12"/>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="13"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:26" x14ac:dyDescent="0.3">
+      <c r="O34" s="10">
+        <f>14/4</f>
+        <v>3.5</v>
+      </c>
+      <c r="P34" s="3">
+        <f>9.5/4</f>
+        <v>2.375</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="6"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="R34" s="11">
+        <f t="shared" si="7"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="8"/>
+        <v>31.818181818181813</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="9"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U34" s="8">
+        <f>9.5/4</f>
+        <v>2.375</v>
+      </c>
+      <c r="V34" s="2">
+        <f>5.5/2</f>
+        <v>2.75</v>
+      </c>
+      <c r="W34" s="5">
+        <f t="shared" si="10"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="X34" s="11">
+        <f t="shared" si="11"/>
+        <v>5.5000000000000005E-3</v>
+      </c>
+      <c r="Y34" s="6">
+        <f t="shared" si="12"/>
+        <v>4.2749999999999995</v>
+      </c>
+      <c r="Z34" s="11">
+        <f t="shared" si="13"/>
+        <v>1.8333333333333333E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I24:V24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>